--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12090" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
     <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId2"/>
     <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
+    <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -156,14 +157,40 @@
     <t>DS01_ActType_Acces_04</t>
   </si>
   <si>
-    <t>9637</t>
+    <t>CIF Type Code</t>
+  </si>
+  <si>
+    <t>CIF Type</t>
+  </si>
+  <si>
+    <t>Economic Sector</t>
+  </si>
+  <si>
+    <t>Sub Economic Sector</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Legal Status</t>
+  </si>
+  <si>
+    <t>Allow Gl Code</t>
+  </si>
+  <si>
+    <t>CIFType_01</t>
+  </si>
+  <si>
+    <t>DS_01_CIFType_01</t>
+  </si>
+  <si>
+    <t>Individual</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -211,7 +238,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -234,19 +261,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,19 +586,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="5.62109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -588,8 +631,8 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>46</v>
+      <c r="C2" s="3">
+        <v>9642</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -612,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="3">
-        <v>9626</v>
+        <v>9643</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -635,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="3">
-        <v>9627</v>
+        <v>9644</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
@@ -658,7 +701,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>9628</v>
+        <v>9645</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>9</v>
@@ -683,18 +726,18 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.4375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -724,9 +767,7 @@
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
         <v>26</v>
       </c>
@@ -783,19 +824,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.69921875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -831,14 +872,14 @@
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6" t="s">
+      <c r="D2" s="6">
+        <v>9636</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>44</v>
       </c>
     </row>
@@ -852,15 +893,113 @@
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6">
+        <v>9636</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>44</v>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="10">
+        <v>9611</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10">
+        <v>62</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>9601</v>
       </c>
     </row>
   </sheetData>

--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="27795" windowHeight="12090"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
-    <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId2"/>
-    <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
-    <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
+    <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId3"/>
+    <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId4"/>
+    <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId5"/>
+    <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -58,27 +58,27 @@
     <t>DS02_Pre_req_GL_01</t>
   </si>
   <si>
+    <t>Assets</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
     <t>DS03_Pre_req_GL_01</t>
   </si>
   <si>
+    <t>Expenses</t>
+  </si>
+  <si>
     <t>DS04_Pre_req_GL_01</t>
   </si>
   <si>
-    <t>Assets</t>
-  </si>
-  <si>
-    <t>Expenses</t>
-  </si>
-  <si>
     <t>Revenues</t>
   </si>
   <si>
     <t>Both</t>
   </si>
   <si>
-    <t>Credit</t>
-  </si>
-  <si>
     <t>Type Code</t>
   </si>
   <si>
@@ -100,63 +100,75 @@
     <t>DEMAND</t>
   </si>
   <si>
+    <t>DAY/S</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>DS02_Pre_req_actType_01</t>
+  </si>
+  <si>
     <t>TERM</t>
   </si>
   <si>
-    <t>DAY/S</t>
-  </si>
-  <si>
     <t>MONTH/S</t>
   </si>
   <si>
+    <t>DS03_Pre_req_actType_01</t>
+  </si>
+  <si>
     <t>YEAR/S</t>
   </si>
   <si>
     <t>Bank</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>DS02_Pre_req_actType_01</t>
-  </si>
-  <si>
-    <t>DS03_Pre_req_actType_01</t>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>AccountType</t>
+  </si>
+  <si>
+    <t>CIFType</t>
+  </si>
+  <si>
+    <t>CIF Transaction No</t>
+  </si>
+  <si>
+    <t>AccountType Transaction No</t>
   </si>
   <si>
     <t>ActType_Acces_03</t>
   </si>
   <si>
+    <t>DS01_ActType_Acces_03</t>
+  </si>
+  <si>
+    <t>ANANDH</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
     <t>ActType_Acces_04</t>
   </si>
   <si>
-    <t>DS01_ActType_Acces_03</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>AccountType</t>
-  </si>
-  <si>
-    <t>CIFType</t>
-  </si>
-  <si>
-    <t>CIF Transaction No</t>
-  </si>
-  <si>
-    <t>AccountType Transaction No</t>
-  </si>
-  <si>
-    <t>ANANDH</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
     <t>DS01_ActType_Acces_04</t>
   </si>
   <si>
+    <t>TRS_001_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_001_01</t>
+  </si>
+  <si>
+    <t>TRS_002_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_002_01</t>
+  </si>
+  <si>
     <t>CIF Type Code</t>
   </si>
   <si>
@@ -166,10 +178,10 @@
     <t>Economic Sector</t>
   </si>
   <si>
+    <t>Role</t>
+  </si>
+  <si>
     <t>Sub Economic Sector</t>
-  </si>
-  <si>
-    <t>Role</t>
   </si>
   <si>
     <t>Legal Status</t>
@@ -191,19 +203,67 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="8">
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF202124"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u val="single"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -215,7 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor rgb="FFA6A6A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,54 +308,218 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="29">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Result" xfId="20"/>
+    <cellStyle name="Result2" xfId="21"/>
+    <cellStyle name="Heading" xfId="22"/>
+    <cellStyle name="Heading1" xfId="23"/>
+    <cellStyle name="Heading_20_1" xfId="24"/>
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
+    <cellStyle name="Heading1_20_1" xfId="26"/>
+    <cellStyle name="Result_20_1" xfId="27"/>
+    <cellStyle name="Result2_20_1" xfId="28"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -310,44 +534,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -374,14 +598,32 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -408,6 +650,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,189 +679,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dec25e34-a220-4a90-82ad-7c60258589d2}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="29.857142857142858" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="29.285714285714285" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="13.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="18.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="20.571428571428573" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.05">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -624,14 +861,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.05">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>9642</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -640,21 +877,21 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.05">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>9643</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -663,21 +900,21 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.05">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="4">
         <v>9644</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -686,21 +923,21 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.05">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
         <v>9645</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -709,38 +946,40 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ec3f8741-31bf-46a4-a508-1d5daa3a5de5}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="31.714285714285715" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="31.857142857142858" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="34.57142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="32.57142857142857" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="28.142857142857142" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="23.857142857142858" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="14.05">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,86 +999,87 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="14.05">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:6" ht="14.05">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="C3" s="6"/>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.05">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>31</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8712532d-3b5c-4247-b85b-e67bb61cd0a5}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="30.428571428571427" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="31.714285714285715" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="19.142857142857142" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="29.714285714285715" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="34.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="44.42857142857143" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.05">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,92 +1087,132 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="14.05">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="7">
+        <v>9636</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="6">
-        <v>9636</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="14.05">
+      <c r="A3" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="7">
+        <v>9636</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6">
-        <v>9636</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.05">
+      <c r="A4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.05">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b5dd888d-c4b8-472a-ac4a-329746ac7fd6}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0" topLeftCell="B1">
+      <selection pane="topLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="28.285714285714285" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="32.142857142857146" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.857142857142858" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="37.57142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="32.285714285714285" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="20.571428571428573" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="28.714285714285715" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="26.428571428571427" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="33.57142857142857" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="25.571428571428573" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="13.5234375" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" ht="14.05">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -940,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -949,60 +1229,59 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.05">
+      <c r="A2" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="10">
+        <v>58</v>
+      </c>
+      <c r="C2" s="11">
         <v>9611</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="10">
+      <c r="F2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="11">
         <v>1</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>62</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="6">
-        <v>9601</v>
-      </c>
+      <c r="K2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -124,6 +124,9 @@
     <t>Bank</t>
   </si>
   <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -167,6 +170,18 @@
   </si>
   <si>
     <t>DS01_TRS_002_01</t>
+  </si>
+  <si>
+    <t>TRS_003_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_003_01</t>
+  </si>
+  <si>
+    <t>TRS_004_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_004_01</t>
   </si>
   <si>
     <t>CIF Type Code</t>
@@ -203,8 +218,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="$#,##0.00;[RED]-$#,##0.00"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -226,15 +242,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <i/>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u val="single"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -333,7 +349,7 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment/>
       <protection/>
@@ -358,76 +374,88 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="25" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="25" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment/>
       <protection/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment/>
       <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="15" builtinId="5"/>
     <cellStyle name="Currency" xfId="16" builtinId="4"/>
@@ -438,11 +466,16 @@
     <cellStyle name="Result2" xfId="21"/>
     <cellStyle name="Heading" xfId="22"/>
     <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="Heading_20_1" xfId="24"/>
+    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Heading1_20_1" xfId="26"/>
-    <cellStyle name="Result_20_1" xfId="27"/>
-    <cellStyle name="Result2_20_1" xfId="28"/>
+    <cellStyle name="Heading_20_1" xfId="26"/>
+    <cellStyle name="Heading1_20_1" xfId="27"/>
+    <cellStyle name="Heading1_5f_20_5f_1" xfId="28"/>
+    <cellStyle name="Heading_5f_20_5f_1" xfId="29"/>
+    <cellStyle name="Result_20_1" xfId="30"/>
+    <cellStyle name="Result2_20_1" xfId="31"/>
+    <cellStyle name="Result2_5f_20_5f_1" xfId="32"/>
+    <cellStyle name="Result_5f_20_5f_1" xfId="33"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -819,23 +852,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{dec25e34-a220-4a90-82ad-7c60258589d2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14cfeffa-9549-4edd-bcdb-21fc1e4b04e7}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="29.857142857142858" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="29.285714285714285" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="13.857142857142858" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="18.428571428571427" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="24.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="29.714285714285715" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="20.571428571428573" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="31.571428571428573" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.857142857142858" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="14.571428571428571" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="19.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.571428571428573" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="31.428571428571427" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="21.714285714285715" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.05">
@@ -954,29 +987,29 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ec3f8741-31bf-46a4-a508-1d5daa3a5de5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7d9399e3-5c42-47d8-b015-6d8358539766}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="31.714285714285715" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="31.857142857142858" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="32.42857142857143" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="34.57142857142857" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="32.57142857142857" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="28.142857142857142" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="23.857142857142858" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="33.42857142857143" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.57142857142857" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="34.285714285714285" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="36.57142857142857" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="34.42857142857143" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="25.142857142857142" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.05">
@@ -1054,162 +1087,200 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8712532d-3b5c-4247-b85b-e67bb61cd0a5}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bc1428cb-db3b-418d-8392-d7911051d700}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="30.428571428571427" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="31.714285714285715" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="19.142857142857142" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="29.714285714285715" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="34.42857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="44.42857142857143" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.142857142857146" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.42857142857143" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="20.142857142857142" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.428571428571427" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="35.857142857142854" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="36.42857142857143" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="47.0" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.05">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.05">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7">
         <v>9636</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.05">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="7">
         <v>9636</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.05">
       <c r="A4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.05">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.05">
+      <c r="A6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="14.05">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{b5dd888d-c4b8-472a-ac4a-329746ac7fd6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d650fe68-13a0-47ac-9ede-20f245860a08}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="B1">
       <selection pane="topLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.854285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="28.285714285714285" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="32.142857142857146" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="28.857142857142858" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="37.57142857142857" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="32.285714285714285" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="20.571428571428573" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="28.714285714285715" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="26.428571428571427" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="33.57142857142857" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="25.571428571428573" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="29.857142857142858" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="30.428571428571427" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="39.714285714285715" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="34.142857142857146" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="21.714285714285715" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="30.285714285714285" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.857142857142858" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="35.42857142857143" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="27.0" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="13.5234375" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.857142857142858" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.05">
@@ -1220,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1229,30 +1300,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.05">
       <c r="A2" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C2" s="11">
         <v>9611</v>
@@ -1264,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G2" s="11">
         <v>1</v>
@@ -1281,7 +1352,7 @@
       <c r="K2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.3405999999999998" bottom="1.3405999999999998" header="1.1437" footer="1.1437"/>
+  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
   <pageSetup orientation="portrait" paperSize="1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId3"/>
-    <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId4"/>
-    <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId5"/>
-    <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId6"/>
+    <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="CSMParam_AccountTypeTestData" sheetId="2" r:id="rId2"/>
+    <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
+    <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
+    <sheet name="CSMParam_TransactionTypeTestDat" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -212,21 +213,167 @@
   </si>
   <si>
     <t>Individual</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>TRS_044_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DS01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRS_044_01</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS_045_01</t>
+  </si>
+  <si>
+    <t>TRS_046_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DS01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRS_046_01</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS_048_01</t>
+  </si>
+  <si>
+    <t>TRS_049_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DS01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRS_049_01</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS_050_01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DS01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRS_050_01</t>
+    </r>
+  </si>
+  <si>
+    <t>TRS_047_50_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_047_50_01</t>
+  </si>
+  <si>
+    <r>
+      <t>DS01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRS_048_01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DS01_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF111111"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>TRS_045_01</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="$#,##0.00;[RED]-$#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0.00;[RED]-&quot;$&quot;#,##0.00"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
       <family val="2"/>
     </font>
     <font>
@@ -242,24 +389,7 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u val="single"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -275,14 +405,20 @@
     <font>
       <b/>
       <i/>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
+      <name val="Consolas"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +449,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -335,6 +477,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -347,204 +490,67 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="24" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="24" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment/>
-      <protection/>
-    </xf>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="7">
+    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
+    <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="6"/>
+    <cellStyle name="Heading" xfId="3"/>
+    <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
-    <cellStyle name="Result" xfId="20"/>
-    <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
-    <cellStyle name="Excel_5f_20_5f_Built-in_5f_20_5f_Normal" xfId="24"/>
-    <cellStyle name="Excel_20_Built-in_20_Normal" xfId="25"/>
-    <cellStyle name="Heading_20_1" xfId="26"/>
-    <cellStyle name="Heading1_20_1" xfId="27"/>
-    <cellStyle name="Heading1_5f_20_5f_1" xfId="28"/>
-    <cellStyle name="Heading_5f_20_5f_1" xfId="29"/>
-    <cellStyle name="Result_20_1" xfId="30"/>
-    <cellStyle name="Result2_20_1" xfId="31"/>
-    <cellStyle name="Result2_5f_20_5f_1" xfId="32"/>
-    <cellStyle name="Result_5f_20_5f_1" xfId="33"/>
+    <cellStyle name="Result" xfId="1"/>
+    <cellStyle name="Result2" xfId="2"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -599,7 +605,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -651,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -852,26 +858,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14cfeffa-9549-4edd-bcdb-21fc1e4b04e7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="31.571428571428573" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.857142857142858" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="14.571428571428571" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="19.428571428571427" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="25.571428571428573" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="31.428571428571427" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="21.714285714285715" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="33.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.05">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.05">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -917,7 +923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.05">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,7 +946,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.05">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -963,7 +969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.05">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -987,32 +993,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7d9399e3-5c42-47d8-b015-6d8358539766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="33.42857142857143" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.57142857142857" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="34.285714285714285" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="36.57142857142857" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="34.42857142857143" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="29.714285714285715" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="25.142857142857142" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="35.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="38.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="26.5703125" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.05">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.05">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
@@ -1050,7 +1054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.05">
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>24</v>
       </c>
@@ -1068,7 +1072,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.05">
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -1087,32 +1091,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{bc1428cb-db3b-418d-8392-d7911051d700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="32.142857142857146" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.42857142857143" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="20.142857142857142" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="31.428571428571427" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="35.857142857142854" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="36.42857142857143" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="47.0" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="37.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="49.7109375" collapsed="true"/>
+    <col min="8" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.05">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.05">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1156,7 +1160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="14.05">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1177,7 +1181,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.05">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.05">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.05">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1234,7 +1238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.05">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1254,36 +1258,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{d650fe68-13a0-47ac-9ede-20f245860a08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="B1">
-      <selection pane="topLeft" activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.424285714285714" defaultRowHeight="14.05"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="29.857142857142858" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="30.428571428571427" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="39.714285714285715" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="34.142857142857146" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="21.714285714285715" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="30.285714285714285" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="27.857142857142858" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="35.42857142857143" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="42.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="32.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="29.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="37.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
     <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="13.5234375" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="10.428571428571429" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.05">
+    <row r="1" spans="1:11">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.05">
+    <row r="2" spans="1:11">
       <c r="A2" s="10" t="s">
         <v>62</v>
       </c>
@@ -1352,7 +1356,120 @@
       <c r="K2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="1.6355" bottom="1.6355" header="1.4386" footer="1.4386"/>
-  <pageSetup orientation="portrait" paperSize="1"/>
+  <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="16">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="16">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="16">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="16">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="16">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="16">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
     <sheet name="CSMParam_TransactionTypeTestDat" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -348,6 +348,102 @@
       </rPr>
       <t>TRS_045_01</t>
     </r>
+  </si>
+  <si>
+    <t>TRS_089_01</t>
+  </si>
+  <si>
+    <t>TRS_090_01</t>
+  </si>
+  <si>
+    <t>TRS_091_01</t>
+  </si>
+  <si>
+    <t>TRS_092_01</t>
+  </si>
+  <si>
+    <t>TRS_093_01</t>
+  </si>
+  <si>
+    <t>TRS_094_01</t>
+  </si>
+  <si>
+    <t>TRS_095_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_089_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_090_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_091_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_092_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_093_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_095_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_094_01</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Withdraw Limit</t>
+  </si>
+  <si>
+    <t>Deposite Limit</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Withdraw limit</t>
+  </si>
+  <si>
+    <t>Update_DataSet_ID_1</t>
+  </si>
+  <si>
+    <t>DS01_TRS_089</t>
+  </si>
+  <si>
+    <t>DS01_TRS_090</t>
+  </si>
+  <si>
+    <t>DS01_TRS_091</t>
+  </si>
+  <si>
+    <t>DS01_TRS_092</t>
+  </si>
+  <si>
+    <t>DS01_TRS_093</t>
+  </si>
+  <si>
+    <t>DS01_TRS_094</t>
+  </si>
+  <si>
+    <t>DS01_TRS_095</t>
+  </si>
+  <si>
+    <t>Overdrawn Limit</t>
+  </si>
+  <si>
+    <t>96150</t>
+  </si>
+  <si>
+    <t>Update_DataSet_ID_2</t>
+  </si>
+  <si>
+    <t>TRS_095_02</t>
+  </si>
+  <si>
+    <t>DS01_TRS_095_02</t>
   </si>
 </sst>
 </file>
@@ -418,7 +514,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -455,8 +551,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1505EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -507,6 +627,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -521,7 +654,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -538,7 +671,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -551,6 +696,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF1505EB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1098,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1113,149 +1263,415 @@
     <col min="5" max="5" customWidth="true" style="3" width="37.85546875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
     <col min="7" max="7" customWidth="true" style="3" width="49.7109375" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="10" max="11" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="14" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="28">
         <v>9636</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="28">
         <v>9636</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="25" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="25" t="s">
         <v>44</v>
       </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="21">
+        <v>977</v>
+      </c>
+      <c r="I8" s="21">
+        <v>100</v>
+      </c>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="21">
+        <v>977</v>
+      </c>
+      <c r="I9" s="21">
+        <v>100</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="26"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="21">
+        <v>150</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21">
+        <v>100</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="21">
+        <v>150</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21">
+        <v>100</v>
+      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" s="26"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="21">
+        <v>150</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21">
+        <v>100</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="26"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="21">
+        <v>150</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21">
+        <v>100</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="26"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="21">
+        <v>96150</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="21">
+        <v>977</v>
+      </c>
+      <c r="I14" s="21">
+        <v>300</v>
+      </c>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21">
+        <v>100</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
@@ -1267,7 +1683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1353,7 +1769,9 @@
       <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
@@ -1363,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -1374,9 +1792,11 @@
     <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1386,87 +1806,131 @@
       <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
+      <c r="D1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15">
       <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="22">
         <v>377</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+      <c r="D2" s="23"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="22">
         <v>377</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
       <c r="B4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="22">
         <v>377</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="15">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="22">
         <v>502</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="14" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="22">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" ht="15">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="22">
         <v>123</v>
       </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5">
+      <c r="A9" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="21">
+        <v>977</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
     <sheet name="CSMParam_TransactionTypeTestDat" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -444,6 +444,21 @@
   </si>
   <si>
     <t>DS01_TRS_095_02</t>
+  </si>
+  <si>
+    <t>Currency Code</t>
+  </si>
+  <si>
+    <t>TRS_156_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_156_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_156</t>
+  </si>
+  <si>
+    <t>Update_data_set_id_1</t>
   </si>
 </sst>
 </file>
@@ -514,7 +529,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +587,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF1505EB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,7 +675,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -684,6 +705,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1248,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1259,19 +1281,19 @@
     <col min="1" max="1" customWidth="true" style="3" width="34.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="3" width="35.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="37.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="49.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="10" max="11" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.140625" collapsed="true"/>
-    <col min="14" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="37.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="49.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="15" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1285,34 +1307,37 @@
         <v>37</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="J1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="K1" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="L1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="M1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1326,20 +1351,21 @@
         <v>9636</v>
       </c>
       <c r="E2" s="28"/>
-      <c r="F2" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F2" s="28"/>
       <c r="G2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="26"/>
+      <c r="H2" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1353,20 +1379,21 @@
         <v>9636</v>
       </c>
       <c r="E3" s="28"/>
-      <c r="F3" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F3" s="28"/>
       <c r="G3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="26"/>
+      <c r="H3" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1378,20 +1405,21 @@
       </c>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
-      <c r="F4" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F4" s="28"/>
       <c r="G4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="26"/>
+      <c r="H4" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1403,20 +1431,21 @@
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F5" s="28"/>
       <c r="G5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="26"/>
+      <c r="H5" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="26"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1428,20 +1457,21 @@
       </c>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
-      <c r="F6" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F6" s="28"/>
       <c r="G6" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="26"/>
+      <c r="H6" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
       <c r="K6" s="26"/>
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="26"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1453,20 +1483,21 @@
       </c>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
-      <c r="F7" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F7" s="28"/>
       <c r="G7" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="25" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
       <c r="K7" s="26"/>
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="26"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="17" t="s">
         <v>80</v>
       </c>
@@ -1479,23 +1510,24 @@
       <c r="D8" s="21">
         <v>96150</v>
       </c>
-      <c r="E8" s="19"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="21">
+      <c r="G8" s="19"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="21">
         <v>977</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="21">
         <v>100</v>
       </c>
-      <c r="J8" s="21"/>
       <c r="K8" s="21"/>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="21"/>
+      <c r="M8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="20" t="s">
         <v>81</v>
       </c>
@@ -1508,23 +1540,24 @@
       <c r="D9" s="21">
         <v>96150</v>
       </c>
-      <c r="E9" s="19"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="21">
+      <c r="G9" s="19"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="21">
         <v>977</v>
       </c>
-      <c r="I9" s="21">
+      <c r="J9" s="21">
         <v>100</v>
       </c>
-      <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="26" t="s">
+      <c r="L9" s="21"/>
+      <c r="M9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="26"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="17" t="s">
         <v>82</v>
       </c>
@@ -1537,25 +1570,26 @@
       <c r="D10" s="21">
         <v>96150</v>
       </c>
-      <c r="E10" s="19"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="21">
+      <c r="G10" s="19"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="21">
         <v>150</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21">
+      <c r="J10" s="21"/>
+      <c r="K10" s="21">
         <v>100</v>
       </c>
-      <c r="K10" s="21"/>
-      <c r="L10" s="26" t="s">
+      <c r="L10" s="21"/>
+      <c r="M10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="M10" s="26" t="s">
+      <c r="N10" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="20" t="s">
         <v>83</v>
       </c>
@@ -1568,23 +1602,24 @@
       <c r="D11" s="21">
         <v>96150</v>
       </c>
-      <c r="E11" s="19"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="21">
+      <c r="G11" s="19"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="21">
         <v>150</v>
       </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21">
+      <c r="J11" s="21"/>
+      <c r="K11" s="21">
         <v>100</v>
       </c>
-      <c r="K11" s="21"/>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="21"/>
+      <c r="M11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="26"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="17" t="s">
         <v>84</v>
       </c>
@@ -1597,23 +1632,24 @@
       <c r="D12" s="21">
         <v>96150</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="21">
+      <c r="G12" s="19"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="21">
         <v>150</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21">
+      <c r="J12" s="21"/>
+      <c r="K12" s="21">
         <v>100</v>
       </c>
-      <c r="K12" s="21"/>
-      <c r="L12" s="26" t="s">
+      <c r="L12" s="21"/>
+      <c r="M12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="20" t="s">
         <v>85</v>
       </c>
@@ -1626,23 +1662,24 @@
       <c r="D13" s="21">
         <v>96150</v>
       </c>
-      <c r="E13" s="19"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="21">
+      <c r="G13" s="19"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="21">
         <v>150</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21">
+      <c r="J13" s="21"/>
+      <c r="K13" s="21">
         <v>100</v>
       </c>
-      <c r="K13" s="21"/>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="21"/>
+      <c r="M13" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="17" t="s">
         <v>86</v>
       </c>
@@ -1655,23 +1692,52 @@
       <c r="D14" s="21">
         <v>96150</v>
       </c>
-      <c r="E14" s="19"/>
+      <c r="E14" s="21">
+        <v>840</v>
+      </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="21">
+      <c r="G14" s="19"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="21">
         <v>977</v>
       </c>
-      <c r="I14" s="21">
+      <c r="J14" s="21">
         <v>300</v>
       </c>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21">
+      <c r="K14" s="21"/>
+      <c r="L14" s="21">
         <v>100</v>
       </c>
-      <c r="L14" s="26" t="s">
+      <c r="M14" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="21">
+        <v>502</v>
+      </c>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="N15" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
@@ -1683,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1781,10 +1847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -1794,9 +1860,10 @@
     <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1815,8 +1882,11 @@
       <c r="F1" s="16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="15">
+      <c r="G1" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
@@ -1829,8 +1899,9 @@
       <c r="D2" s="23"/>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="15">
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
@@ -1843,8 +1914,9 @@
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="15">
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
@@ -1857,8 +1929,9 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="15">
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7" ht="15">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -1871,8 +1944,9 @@
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="15">
+      <c r="G5" s="19"/>
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="14" t="s">
         <v>71</v>
       </c>
@@ -1885,8 +1959,9 @@
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="15">
+      <c r="G6" s="19"/>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
@@ -1899,8 +1974,9 @@
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="15">
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="15">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -1913,8 +1989,9 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.5">
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:7" ht="13.5">
       <c r="A9" s="20" t="s">
         <v>110</v>
       </c>
@@ -1927,6 +2004,24 @@
       <c r="D9" s="19"/>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5">
+      <c r="A10" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="21">
+        <v>502</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19" t="s">
+        <v>115</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>

--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -460,6 +460,81 @@
   <si>
     <t>Update_data_set_id_1</t>
   </si>
+  <si>
+    <t>TRS</t>
+  </si>
+  <si>
+    <t>TRS_150_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_150_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_150</t>
+  </si>
+  <si>
+    <t>DS01_TRS_155</t>
+  </si>
+  <si>
+    <t>DS01_TRS_154</t>
+  </si>
+  <si>
+    <t>DS01_TRS_153</t>
+  </si>
+  <si>
+    <t>DS01_TRS_152</t>
+  </si>
+  <si>
+    <t>DS01_TRS_151</t>
+  </si>
+  <si>
+    <t>Update_data_set_id_2</t>
+  </si>
+  <si>
+    <t>Update_data_set_id_3</t>
+  </si>
+  <si>
+    <t>Update_data_set_id_4</t>
+  </si>
+  <si>
+    <t>Update_data_set_id_5</t>
+  </si>
+  <si>
+    <t>Update_data_set_id_6</t>
+  </si>
+  <si>
+    <t>AND OR</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>User Level</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>TRS_152_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_152_01</t>
+  </si>
+  <si>
+    <t>Dormant account dropdown</t>
+  </si>
+  <si>
+    <t>Proceed on Dormant A/C and view Signature</t>
+  </si>
+  <si>
+    <t>ANANDHTA</t>
+  </si>
 </sst>
 </file>
 
@@ -468,7 +543,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -527,6 +602,13 @@
       <color rgb="FF111111"/>
       <name val="Consolas"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -675,7 +757,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -706,6 +788,8 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1270,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1281,19 +1365,24 @@
     <col min="1" max="1" customWidth="true" style="3" width="34.0" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="3" width="35.28515625" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="37.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="38.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="49.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="16.28515625" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="28.140625" collapsed="true"/>
-    <col min="15" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="10.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="26.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="38.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="28.140625" collapsed="true"/>
+    <col min="16" max="16" style="3" width="11.0" collapsed="true"/>
+    <col min="17" max="17" style="3" width="11.0" collapsed="false"/>
+    <col min="18" max="16384" style="3" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1328,16 +1417,19 @@
         <v>96</v>
       </c>
       <c r="L1" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="N1" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="O1" s="27" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -1364,8 +1456,9 @@
       <c r="L2" s="26"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -1392,8 +1485,9 @@
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="26"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -1418,8 +1512,9 @@
       <c r="L4" s="26"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="26"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -1444,8 +1539,9 @@
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="26"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>51</v>
       </c>
@@ -1470,8 +1566,9 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="26"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -1496,8 +1593,9 @@
       <c r="L7" s="26"/>
       <c r="M7" s="26"/>
       <c r="N7" s="26"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="26"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
         <v>80</v>
       </c>
@@ -1521,13 +1619,14 @@
         <v>100</v>
       </c>
       <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="26" t="s">
+      <c r="L8" s="26"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="N8" s="26"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="26"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="20" t="s">
         <v>81</v>
       </c>
@@ -1551,13 +1650,14 @@
         <v>100</v>
       </c>
       <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="26" t="s">
+      <c r="L9" s="26"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="26"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="26"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
         <v>82</v>
       </c>
@@ -1581,15 +1681,16 @@
       <c r="K10" s="21">
         <v>100</v>
       </c>
-      <c r="L10" s="21"/>
-      <c r="M10" s="26" t="s">
+      <c r="L10" s="26"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="N10" s="26" t="s">
+      <c r="O10" s="26" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" s="20" t="s">
         <v>83</v>
       </c>
@@ -1613,13 +1714,14 @@
       <c r="K11" s="21">
         <v>100</v>
       </c>
-      <c r="L11" s="21"/>
-      <c r="M11" s="26" t="s">
+      <c r="L11" s="26"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="26"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="26"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="17" t="s">
         <v>84</v>
       </c>
@@ -1643,13 +1745,14 @@
       <c r="K12" s="21">
         <v>100</v>
       </c>
-      <c r="L12" s="21"/>
-      <c r="M12" s="26" t="s">
+      <c r="L12" s="26"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N12" s="26"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="26"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="20" t="s">
         <v>85</v>
       </c>
@@ -1673,13 +1776,14 @@
       <c r="K13" s="21">
         <v>100</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="26" t="s">
+      <c r="L13" s="26"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="26"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="26"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="17" t="s">
         <v>86</v>
       </c>
@@ -1705,43 +1809,70 @@
         <v>300</v>
       </c>
       <c r="K14" s="21"/>
-      <c r="L14" s="21">
+      <c r="L14" s="26"/>
+      <c r="M14" s="21">
         <v>100</v>
       </c>
-      <c r="M14" s="26" t="s">
+      <c r="N14" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="N14" s="26"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="20" t="s">
-        <v>113</v>
+      <c r="O14" s="26"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
       <c r="H15" s="26"/>
-      <c r="I15" s="21">
-        <v>502</v>
-      </c>
+      <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="26" t="s">
+      <c r="L15" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="M15" s="21"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="21">
+        <v>502</v>
+      </c>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="N15" s="26"/>
+      <c r="O16" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1835,9 +1966,7 @@
       <c r="J2" s="11">
         <v>1</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>108</v>
-      </c>
+      <c r="K2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
@@ -1847,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -1860,12 +1989,14 @@
     <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="7" max="10" customWidth="true" width="15.42578125" collapsed="false"/>
+    <col min="11" max="12" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="13" max="16" customWidth="true" width="27.5703125" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:16" ht="15">
       <c r="A1" s="12" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -1882,11 +2013,38 @@
       <c r="F1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="29" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+      <c r="L1" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15">
       <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
@@ -1900,8 +2058,17 @@
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+    </row>
+    <row r="3" spans="1:16" ht="15">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
@@ -1915,8 +2082,17 @@
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="1:7" ht="15">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="1:16" ht="15">
       <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
@@ -1930,8 +2106,17 @@
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="15">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+    </row>
+    <row r="5" spans="1:16" ht="15">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -1945,8 +2130,17 @@
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="15">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+    </row>
+    <row r="6" spans="1:16" ht="15">
       <c r="A6" s="14" t="s">
         <v>71</v>
       </c>
@@ -1960,8 +2154,17 @@
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="15">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+    </row>
+    <row r="7" spans="1:16" ht="15">
       <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
@@ -1975,8 +2178,17 @@
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="15">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+    </row>
+    <row r="8" spans="1:16" ht="15">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -1990,8 +2202,17 @@
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="13.5">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+    </row>
+    <row r="9" spans="1:16" ht="13.5">
       <c r="A9" s="20" t="s">
         <v>110</v>
       </c>
@@ -2005,23 +2226,87 @@
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="13.5">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+    </row>
+    <row r="10" spans="1:16" ht="13.5">
       <c r="A10" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C10" s="21">
-        <v>502</v>
+        <v>977</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="13.5">
+      <c r="A11" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="21">
+        <v>502</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>115</v>
       </c>
+      <c r="L11" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>

--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="CSMParam_userAccessTestData" sheetId="3" r:id="rId3"/>
     <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
     <sheet name="CSMParam_TransactionTypeTestDat" sheetId="5" r:id="rId5"/>
+    <sheet name="ChargeCodeTestData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -434,9 +435,6 @@
     <t>Overdrawn Limit</t>
   </si>
   <si>
-    <t>96150</t>
-  </si>
-  <si>
     <t>Update_DataSet_ID_2</t>
   </si>
   <si>
@@ -461,9 +459,6 @@
     <t>Update_data_set_id_1</t>
   </si>
   <si>
-    <t>TRS</t>
-  </si>
-  <si>
     <t>TRS_150_01</t>
   </si>
   <si>
@@ -534,6 +529,66 @@
   </si>
   <si>
     <t>ANANDHTA</t>
+  </si>
+  <si>
+    <t>TRS_155_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_155_01</t>
+  </si>
+  <si>
+    <t>Charge Code</t>
+  </si>
+  <si>
+    <t>DS01_CW_040_01</t>
+  </si>
+  <si>
+    <t>DS01_CW_041_01</t>
+  </si>
+  <si>
+    <t>CW_040_01</t>
+  </si>
+  <si>
+    <t>CW_041_01</t>
+  </si>
+  <si>
+    <t>DS01_CW_040_02</t>
+  </si>
+  <si>
+    <t>DS01_CW_041_02</t>
+  </si>
+  <si>
+    <t>CW_038_01</t>
+  </si>
+  <si>
+    <t>DS01_CW_038_01</t>
+  </si>
+  <si>
+    <t>CW_039_01</t>
+  </si>
+  <si>
+    <t>CW_040_02</t>
+  </si>
+  <si>
+    <t>CW_041_02</t>
+  </si>
+  <si>
+    <t>DS01_CW_039_01</t>
+  </si>
+  <si>
+    <t>6710</t>
+  </si>
+  <si>
+    <t>CW_038_02</t>
+  </si>
+  <si>
+    <t>CW_039_02</t>
+  </si>
+  <si>
+    <t>DS01_CW_038_02</t>
+  </si>
+  <si>
+    <t>DS01_CW_039_02</t>
   </si>
 </sst>
 </file>
@@ -679,7 +734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -743,6 +798,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -757,7 +825,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -790,6 +858,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1107,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1123,14 +1199,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="33.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="33.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="11" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1262,14 +1338,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="35.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="36.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="38.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="36.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="26.5703125" collapsed="true"/>
-    <col min="8" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="35.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="11" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1354,32 +1430,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="10.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="18.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="26.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="14.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="38.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="28.140625" collapsed="true"/>
-    <col min="16" max="16" style="3" width="11.0" collapsed="true"/>
-    <col min="17" max="17" style="3" width="11.0" collapsed="false"/>
-    <col min="18" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="34" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="38" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="16.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="28.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="11" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1396,7 +1470,7 @@
         <v>37</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>38</v>
@@ -1417,7 +1491,7 @@
         <v>96</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M1" s="27" t="s">
         <v>107</v>
@@ -1426,7 +1500,7 @@
         <v>99</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1820,13 +1894,13 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -1837,38 +1911,69 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
       <c r="L15" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M15" s="21"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="20" t="s">
-        <v>113</v>
+      <c r="A16" s="17" t="s">
+        <v>140</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="21"/>
+        <v>139</v>
+      </c>
+      <c r="D16" s="21">
+        <v>96992</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="26"/>
       <c r="I16" s="21">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="21"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="21">
+        <v>1000</v>
+      </c>
       <c r="N16" s="26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O16" s="26"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="21">
+        <v>502</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="O17" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="1.9306999999999999" bottom="1.9306999999999999" header="1.7338" footer="1.7338"/>
@@ -1880,24 +1985,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="32.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="42.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="36.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="32.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="29.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="37.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="3" width="13.5234375" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="11.0" collapsed="true"/>
+    <col min="1" max="1" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="37.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.5703125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="11" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1976,27 +2079,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="7" max="10" customWidth="true" width="15.42578125" collapsed="false"/>
-    <col min="11" max="12" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="13" max="16" customWidth="true" width="27.5703125" collapsed="false"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="16" width="27.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15">
       <c r="A1" s="12" t="s">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -2014,34 +2115,34 @@
         <v>96</v>
       </c>
       <c r="G1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>134</v>
-      </c>
       <c r="K1" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>128</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="P1" s="30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15">
@@ -2214,10 +2315,10 @@
     </row>
     <row r="9" spans="1:16" ht="13.5">
       <c r="A9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>111</v>
       </c>
       <c r="C9" s="21">
         <v>977</v>
@@ -2238,10 +2339,10 @@
     </row>
     <row r="10" spans="1:16" ht="13.5">
       <c r="A10" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C10" s="21">
         <v>977</v>
@@ -2250,63 +2351,159 @@
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H10" s="19">
         <v>1</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="J10" s="19">
         <v>3</v>
       </c>
       <c r="K10" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="L10" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="P10" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="13.5">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="35">
+        <v>502</v>
+      </c>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="21">
+      <c r="L11" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+    </row>
+    <row r="12" spans="1:16" ht="13.5">
+      <c r="A12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="21">
         <v>502</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+    </row>
+    <row r="13" spans="1:16" ht="13.5">
+      <c r="A13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="21">
+        <v>502</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+    </row>
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="13.5">
+      <c r="A14" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="21">
+        <v>502</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+    </row>
+    <row r="15" spans="1:16" s="37" customFormat="1" ht="13.5">
+      <c r="A15" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="21">
+        <v>502</v>
+      </c>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
@@ -2316,4 +2513,79 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="38">
+        <v>9632</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="38">
+        <v>9632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="CSMParam_CIFTypeTestData" sheetId="4" r:id="rId4"/>
     <sheet name="CSMParam_TransactionTypeTestDat" sheetId="5" r:id="rId5"/>
     <sheet name="ChargeCodeTestData" sheetId="6" r:id="rId6"/>
+    <sheet name="Cheques_ChequeBookTestData" sheetId="7" r:id="rId7"/>
+    <sheet name="CSMParam_ControlRecordsTestData" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="210">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -590,6 +592,156 @@
   <si>
     <t>DS01_CW_039_02</t>
   </si>
+  <si>
+    <t>Chequebook code</t>
+  </si>
+  <si>
+    <t>Gl Code</t>
+  </si>
+  <si>
+    <t>CHB_055_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_055_01</t>
+  </si>
+  <si>
+    <t>Update dataset ID 1</t>
+  </si>
+  <si>
+    <t>DS01_CHB_055</t>
+  </si>
+  <si>
+    <t>CHB_057_01</t>
+  </si>
+  <si>
+    <t>CHB_058_01</t>
+  </si>
+  <si>
+    <t>CHB_059_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_057_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_058_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_059_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_057</t>
+  </si>
+  <si>
+    <t>DS01_CHB_058</t>
+  </si>
+  <si>
+    <t>DS01_CHB_059</t>
+  </si>
+  <si>
+    <t>CHB_060_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_060_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_060</t>
+  </si>
+  <si>
+    <t>CHB_062_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_062_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_062</t>
+  </si>
+  <si>
+    <t>CHB_063_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_063_01</t>
+  </si>
+  <si>
+    <t>CHB_064_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_064_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_064</t>
+  </si>
+  <si>
+    <t>DS01_CHB_063</t>
+  </si>
+  <si>
+    <t>CHB_067_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_067_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_067</t>
+  </si>
+  <si>
+    <t>CHB_065_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_065_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_065</t>
+  </si>
+  <si>
+    <t>CHB_066_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_066_01</t>
+  </si>
+  <si>
+    <t>CHB_081_02</t>
+  </si>
+  <si>
+    <t>DS01_CHB_081_02</t>
+  </si>
+  <si>
+    <t>Cheque Unique Based On</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>CHB_081_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_081_01</t>
+  </si>
+  <si>
+    <t>Update dataset ID 2</t>
+  </si>
+  <si>
+    <t>DS01_CHB_081</t>
+  </si>
+  <si>
+    <t>DS01_CHB_082</t>
+  </si>
+  <si>
+    <t>CHB_074_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_074_01</t>
+  </si>
+  <si>
+    <t>DS01_CHB_074</t>
+  </si>
+  <si>
+    <t>CHB_075_02</t>
+  </si>
+  <si>
+    <t>DS01_CHB_075_01</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
 </sst>
 </file>
 
@@ -598,7 +750,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -664,6 +816,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF363636"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -825,7 +983,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -866,6 +1024,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
@@ -1183,7 +1347,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2519,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2588,4 +2752,380 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="40">
+        <v>7689</v>
+      </c>
+      <c r="D2" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E2" s="40">
+        <v>840</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="40">
+        <v>7689</v>
+      </c>
+      <c r="D3" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E3" s="40">
+        <v>840</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="40">
+        <v>7689</v>
+      </c>
+      <c r="D4" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E4" s="40">
+        <v>840</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="40">
+        <v>7689</v>
+      </c>
+      <c r="D5" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E5" s="40">
+        <v>840</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="40">
+        <v>7689</v>
+      </c>
+      <c r="D6" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E6" s="40">
+        <v>840</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="40">
+        <v>888</v>
+      </c>
+      <c r="D7" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E7" s="40">
+        <v>840</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="40">
+        <v>888</v>
+      </c>
+      <c r="D8" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E8" s="40">
+        <v>840</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="40">
+        <v>888</v>
+      </c>
+      <c r="D9" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E9" s="40">
+        <v>840</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="40">
+        <v>888</v>
+      </c>
+      <c r="D10" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E10" s="40">
+        <v>840</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="40">
+        <v>888</v>
+      </c>
+      <c r="D11" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E11" s="40">
+        <v>840</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12" s="40">
+        <v>888</v>
+      </c>
+      <c r="D12" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E12" s="40">
+        <v>840</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="40">
+        <v>888</v>
+      </c>
+      <c r="D13" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E13" s="40">
+        <v>840</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="40">
+        <v>888</v>
+      </c>
+      <c r="D14" s="41">
+        <v>96137</v>
+      </c>
+      <c r="E14" s="40">
+        <v>840</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
+++ b/AzentioAutomationFramework_CSMAnandh/TestData/CSMparamTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" tabRatio="1000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CSMParam_GeneralLedgerTestData" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="236">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -742,6 +742,84 @@
   <si>
     <t>Branch</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Mode of payment</t>
+  </si>
+  <si>
+    <t>Normal Behavior</t>
+  </si>
+  <si>
+    <t>TRS_375_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_375_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_375_02</t>
+  </si>
+  <si>
+    <t>DS01_TRS_375_03</t>
+  </si>
+  <si>
+    <t>TRS_376_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_376_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_376_02</t>
+  </si>
+  <si>
+    <t>DS01_TRS_376_03</t>
+  </si>
+  <si>
+    <t>TRS_377_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_377_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_377_02</t>
+  </si>
+  <si>
+    <t>DS01_TRS_377_03</t>
+  </si>
+  <si>
+    <t>TRS_520_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_520_01</t>
+  </si>
+  <si>
+    <t>TRS_521_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_521_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_520_02</t>
+  </si>
+  <si>
+    <t>DS01_TRS_521_02</t>
+  </si>
+  <si>
+    <t>TRS_516_01</t>
+  </si>
+  <si>
+    <t>DS01_TRS_516_01</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DS01_TRS_516_02</t>
+  </si>
 </sst>
 </file>
 
@@ -750,7 +828,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -821,6 +899,13 @@
       <sz val="10"/>
       <color rgb="FF363636"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -970,7 +1055,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -982,8 +1067,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1030,10 +1116,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Excel_20_Built-in_20_Normal" xfId="5"/>
     <cellStyle name="Excel_5f_5f_5f_20_5f_5f_5f_Built-in_5f_5f_5f_20_5f_5f_5f_Normal" xfId="6"/>
+    <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="7"/>
     <cellStyle name="Heading" xfId="3"/>
     <cellStyle name="Heading1" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2243,10 +2332,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.28515625" defaultRowHeight="12.75"/>
@@ -2254,12 +2343,15 @@
     <col min="1" max="1" width="19.85546875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="10" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="16" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="12" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="18" width="27.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15">
+    <row r="1" spans="1:18" ht="15">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -2269,47 +2361,53 @@
       <c r="C1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="O1" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="P1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="Q1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="R1" s="30" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="15">
+    <row r="2" spans="1:18" ht="15">
       <c r="A2" s="14" t="s">
         <v>66</v>
       </c>
@@ -2319,8 +2417,8 @@
       <c r="C2" s="22">
         <v>377</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="23"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
@@ -2332,8 +2430,10 @@
       <c r="N2" s="19"/>
       <c r="O2" s="19"/>
       <c r="P2" s="19"/>
-    </row>
-    <row r="3" spans="1:16" ht="15">
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+    </row>
+    <row r="3" spans="1:18" ht="15">
       <c r="A3" s="14" t="s">
         <v>68</v>
       </c>
@@ -2356,8 +2456,10 @@
       <c r="N3" s="19"/>
       <c r="O3" s="19"/>
       <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="1:16" ht="15">
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+    </row>
+    <row r="4" spans="1:18" ht="15">
       <c r="A4" s="14" t="s">
         <v>69</v>
       </c>
@@ -2380,8 +2482,10 @@
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
       <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="1:16" ht="15">
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+    </row>
+    <row r="5" spans="1:18" ht="15">
       <c r="A5" s="14" t="s">
         <v>76</v>
       </c>
@@ -2404,8 +2508,10 @@
       <c r="N5" s="19"/>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
-    </row>
-    <row r="6" spans="1:16" ht="15">
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" ht="15">
       <c r="A6" s="14" t="s">
         <v>71</v>
       </c>
@@ -2428,8 +2534,10 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
-    </row>
-    <row r="7" spans="1:16" ht="15">
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+    </row>
+    <row r="7" spans="1:18" ht="15">
       <c r="A7" s="14" t="s">
         <v>72</v>
       </c>
@@ -2452,8 +2560,10 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
-    </row>
-    <row r="8" spans="1:16" ht="15">
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+    </row>
+    <row r="8" spans="1:18" ht="15">
       <c r="A8" s="14" t="s">
         <v>74</v>
       </c>
@@ -2476,8 +2586,10 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" ht="13.5">
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+    </row>
+    <row r="9" spans="1:18" ht="13.5">
       <c r="A9" s="20" t="s">
         <v>109</v>
       </c>
@@ -2500,8 +2612,10 @@
       <c r="N9" s="19"/>
       <c r="O9" s="19"/>
       <c r="P9" s="19"/>
-    </row>
-    <row r="10" spans="1:16" ht="13.5">
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+    </row>
+    <row r="10" spans="1:18" ht="13.5">
       <c r="A10" s="20" t="s">
         <v>116</v>
       </c>
@@ -2514,38 +2628,40 @@
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="19">
+      <c r="J10" s="19">
         <v>1</v>
       </c>
-      <c r="I10" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="J10" s="19">
+      <c r="L10" s="19">
         <v>3</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="M10" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="N10" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="M10" s="18" t="s">
+      <c r="O10" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="P10" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="Q10" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="R10" s="18" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="13.5">
+    <row r="11" spans="1:18" ht="13.5">
       <c r="A11" s="33" t="s">
         <v>112</v>
       </c>
@@ -2555,119 +2671,321 @@
       <c r="C11" s="35">
         <v>502</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="L11" s="36" t="s">
+      <c r="N11" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
       <c r="O11" s="36"/>
       <c r="P11" s="36"/>
-    </row>
-    <row r="12" spans="1:16" ht="13.5">
-      <c r="A12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="21">
-        <v>502</v>
-      </c>
-      <c r="D12" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="13.5">
+      <c r="A12" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="35">
+        <v>154</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="H12" s="44" t="s">
+        <v>213</v>
+      </c>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="N12" s="45" t="s">
+        <v>217</v>
+      </c>
       <c r="O12" s="36"/>
       <c r="P12" s="36"/>
-    </row>
-    <row r="13" spans="1:16" ht="13.5">
-      <c r="A13" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13" s="21">
-        <v>502</v>
-      </c>
-      <c r="D13" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="13.5">
+      <c r="A13" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="35">
+        <v>407</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="H13" s="44" t="s">
+        <v>213</v>
+      </c>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>221</v>
+      </c>
       <c r="O13" s="36"/>
       <c r="P13" s="36"/>
-    </row>
-    <row r="14" spans="1:16" s="37" customFormat="1" ht="13.5">
-      <c r="A14" s="20" t="s">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="13.5">
+      <c r="A14" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="35">
+        <v>2</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="N14" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" ht="13.5">
+      <c r="A15" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="35">
+        <v>150</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="N15" s="45"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+    </row>
+    <row r="16" spans="1:18" ht="13.5">
+      <c r="A16" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="C16" s="35">
+        <v>294</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="45" t="s">
+        <v>230</v>
+      </c>
+      <c r="N16" s="45"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+    </row>
+    <row r="17" spans="1:18" ht="13.5">
+      <c r="A17" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="35">
+        <v>294</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="45" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" s="45"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+    </row>
+    <row r="18" spans="1:18" ht="13.5">
+      <c r="A18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="21">
+        <v>502</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+    </row>
+    <row r="19" spans="1:18" ht="13.5">
+      <c r="A19" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="21">
+        <v>502</v>
+      </c>
+      <c r="D19" s="19"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+    </row>
+    <row r="20" spans="1:18" s="37" customFormat="1" ht="13.5">
+      <c r="A20" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B20" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C20" s="21">
         <v>502</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-    </row>
-    <row r="15" spans="1:16" s="37" customFormat="1" ht="13.5">
-      <c r="A15" s="20" t="s">
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" s="37" customFormat="1" ht="13.5">
+      <c r="A21" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B21" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C21" s="21">
         <v>502</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.78739999999999999" right="0.78739999999999999" top="1.0831" bottom="1.0831" header="0.88580000000000003" footer="0.88580000000000003"/>
@@ -2684,7 +3002,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2759,7 +3077,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3081,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
